--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -74,43 +74,53 @@
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.缓存前置管理功能后台开发调测</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.演唱会直播回看Header接口开发调测
+2.趣玩乐主页_"换一批"数据接口开发调测
+3.趣玩乐主页_视频专题二级页面的数据接口开发调测
+4.音乐视频主页功能的后台开发调测</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +143,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -140,36 +156,161 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,12 +319,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -217,63 +544,352 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -564,374 +1180,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
         <v>20170918</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F11" s="6">
         <v>20170922</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,6 +68,15 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.10月版本---重构新碟二级页面
+2.10月版本---重构新歌二级页面
+3.10月版本---新增搜索反馈页面及接口
+4.10月版本---歌单标签页修改</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
   </si>
   <si>
     <t>王琪</t>
@@ -161,9 +170,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,58 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -253,64 +298,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,187 +334,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -542,65 +545,6 @@
       </right>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -642,16 +586,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,136 +663,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1189,7 +1192,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G25" sqref="G21:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1321,7 +1324,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="69" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1334,10 +1337,18 @@
       <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="E7" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1347,7 +1358,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1365,7 +1376,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1377,10 +1388,10 @@
         <v>20170922</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1391,7 +1402,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1409,7 +1420,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1421,10 +1432,10 @@
         <v>20170922</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
@@ -1435,7 +1446,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1453,7 +1464,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1471,7 +1482,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1489,7 +1500,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1519,7 +1530,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>1、在运行环境测试代码，运行调试。对应接口所传参数进行比对。
+2、发现ModifyPersonalToneBoxResp接口中的返回数据存在问题，已联系接口组的查看问题，并查出接口事件。
+3、对整个项目findbugs检错，并规范代码格式。
+4、添加功能点，对按号码查询的模块添加批量查询功能，导入txt文件。
+5、对所有传参请求的url进行ajax封装，保障数据安全。
+6、对所有功能中删除点添加字段，加说明。
+7、调整原有功能，并新添</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -124,10 +133,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -170,6 +179,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,60 +211,41 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,35 +259,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -282,14 +267,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -297,6 +306,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -305,15 +322,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -334,12 +343,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -358,157 +391,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +557,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -565,9 +607,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,30 +627,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,27 +654,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,136 +672,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1192,7 +1201,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G21:G25"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1470,11 +1479,10 @@
         <v>11</v>
       </c>
       <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
       <c r="G13" s="14"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="207" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1487,10 +1495,18 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="7" t="s">
@@ -1500,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1530,7 +1546,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170922周报\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170922周报\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -122,41 +122,50 @@
 5、对所有传参请求的url进行ajax封装，保障数据安全。
 6、对所有功能中删除点添加字段，加说明。
 7、调整原有功能，并新添</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会直播回看Header接口开发调测
 2.趣玩乐主页_"换一批"数据接口开发调测
 3.趣玩乐主页_视频专题二级页面的数据接口开发调测
 4.音乐视频主页功能的后台开发调测</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1 新增内部号码不能参与活动的判断
 2定时任务数据同步测试
 3.刷新配置项，对项目findbugs检错，并规范代码格式。
 4后台创建角色 和为角色赋值 失败bug修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1.了解模板开发
 2.MV标签和MV列表接口开发和调试</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.江西金曲大选活动开发
+2.查询业务策略接口格式码bug修改</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,8 +176,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -178,6 +206,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -199,17 +233,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -227,13 +250,6 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -287,61 +303,61 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -685,24 +701,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F2:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -729,307 +745,331 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F2" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F3" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F6" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5">
         <v>20170918</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="5">
         <v>20170922</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>20170918</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="5">
         <v>20170922</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>20170918</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="5">
         <v>20170922</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4" t="s">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4">
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>20170918</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="16">
         <v>20170922</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5">
         <v>20170918</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="16">
         <v>20170922</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H13" s="15" t="s">
+      <c r="H13" s="17" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5">
         <v>20170918</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>20170922</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4" t="s">
+      <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1046,45 +1086,45 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
+      <c r="A2" s="2"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
+      <c r="A3" s="2"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
+      <c r="A4" s="2"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="2"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
+      <c r="A6" s="2"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
+      <c r="A7" s="2"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
+      <c r="A8" s="2"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
+      <c r="A9" s="2"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
+      <c r="A10" s="2"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170922周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -63,7 +58,20 @@
     <t>杜智恒</t>
   </si>
   <si>
+    <t>1.配置版本回归测试框架的keys                                       2.回归测试框架使用说明</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
     <t>凌河源</t>
+  </si>
+  <si>
+    <t>1.江西金曲大选活动开发
+2.查询业务策略接口格式码bug修改</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -94,25 +102,35 @@
 2.缓存前置管理功能后台开发调测</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>陈平</t>
   </si>
   <si>
     <t>张文韬</t>
   </si>
   <si>
+    <t>1.演唱会直播回看Header接口开发调测
+2.趣玩乐主页_"换一批"数据接口开发调测
+3.趣玩乐主页_视频专题二级页面的数据接口开发调测
+4.音乐视频主页功能的后台开发调测</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>1.了解模板开发
+2.MV标签和MV列表接口开发和调试</t>
+  </si>
+  <si>
     <t>曾昌林</t>
   </si>
   <si>
+    <t>1 新增内部号码不能参与活动的判断
+2定时任务数据同步测试
+3.刷新配置项，对项目findbugs检错，并规范代码格式。
+4后台创建角色 和为角色赋值 失败bug修改</t>
+  </si>
+  <si>
     <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>1、在运行环境测试代码，运行调试。对应接口所传参数进行比对。
@@ -122,50 +140,25 @@
 5、对所有传参请求的url进行ajax封装，保障数据安全。
 6、对所有功能中删除点添加字段，加说明。
 7、调整原有功能，并新添</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.演唱会直播回看Header接口开发调测
-2.趣玩乐主页_"换一批"数据接口开发调测
-3.趣玩乐主页_视频专题二级页面的数据接口开发调测
-4.音乐视频主页功能的后台开发调测</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 新增内部号码不能参与活动的判断
-2定时任务数据同步测试
-3.刷新配置项，对项目findbugs检错，并规范代码格式。
-4后台创建角色 和为角色赋值 失败bug修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>李春荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.了解模板开发
-2.MV标签和MV列表接口开发和调试</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.江西金曲大选活动开发
-2.查询业务策略接口格式码bug修改</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,27 +169,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -206,12 +180,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -231,28 +199,168 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,12 +369,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,13 +594,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -318,61 +854,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -421,7 +1001,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -454,26 +1034,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -506,23 +1069,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -693,325 +1239,329 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F2:F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>20170918</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>20170922</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="34.5" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20170918</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20170922</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="34.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>20170918</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>20170922</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>20170918</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>20170922</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>20170918</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>20170922</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+    <row r="7" ht="69" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>20170918</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>20170922</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>17</v>
+      <c r="G7" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
       <c r="G8" s="8"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>20170918</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>20170922</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
       <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>20170918</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>20170922</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" ht="34.5" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>20170918</v>
       </c>
       <c r="F12" s="16">
         <v>20170922</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H12" s="17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" ht="86.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="86.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>20170918</v>
       </c>
       <c r="F13" s="16">
@@ -1021,110 +1571,111 @@
         <v>32</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="207" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="207" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>20170918</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>20170922</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="6" t="s">
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="8"/>
       <c r="H15" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -98,11 +98,13 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
-2.缓存前置管理功能后台开发调测</t>
+2.缓存前置管理功能后台开发调测
+3.灰度API熔断功能开发</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码，文档</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -258,14 +260,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -573,7 +575,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -741,7 +743,7 @@
       <c r="G8" s="7"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
@@ -760,11 +762,11 @@
       <c r="F9" s="5">
         <v>20170922</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -893,39 +895,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="13"/>
+      <c r="A2" s="14"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -55,9 +58,6 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>咪咕音乐后台</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -74,45 +74,54 @@
   </si>
   <si>
     <t>罗健</t>
-  </si>
-  <si>
-    <t>张文韬</t>
-  </si>
-  <si>
-    <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>陈平</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.缓存前置管理功能后台开发调测
 3.灰度API熔断功能开发</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>代码，文档</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+  </si>
+  <si>
+    <t>张文韬</t>
+  </si>
+  <si>
+    <t>李春荣</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20170918</t>
+  </si>
+  <si>
+    <t>项目环境、结构的搭建与了解，架构组成的了解，跟踪代码封装过程以及演唱会下部分业务的流程。实现演唱会试看时长业务、整理演唱会相关接口资料到wiki中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,6 +144,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -142,36 +157,161 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +320,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,63 +545,358 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -566,374 +1187,383 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5">
-        <v>20170918</v>
-      </c>
-      <c r="F9" s="5">
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="69" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="15">
         <v>20170922</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="G15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,6 +68,14 @@
   </si>
   <si>
     <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.新碟、新歌重构
+2.增加搜索反馈接口
+3.歌单分类栏目的优化</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
   </si>
   <si>
     <t>王琪</t>
@@ -79,9 +87,6 @@
     <t>1.演唱会互动我的排名和贡献值排行榜接口优化调测
 2.缓存前置管理功能后台开发调测
 3.灰度API熔断功能开发</t>
-  </si>
-  <si>
-    <t>代码，文档</t>
   </si>
   <si>
     <t>陈平</t>
@@ -116,10 +121,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -169,6 +174,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -176,8 +197,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -186,7 +286,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,118 +300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -326,25 +331,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,157 +499,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -546,16 +545,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -564,8 +572,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,43 +596,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -643,154 +616,180 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1196,7 +1195,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1328,7 +1327,7 @@
       <c r="G6" s="9"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" ht="51.75" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1343,8 +1342,12 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
+      <c r="G7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
       <c r="A8" s="7" t="s">
@@ -1354,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1372,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1384,10 +1387,10 @@
         <v>20170922</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1398,7 +1401,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1416,7 +1419,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1434,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1452,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1470,7 +1473,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1488,22 +1491,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F15" s="15">
         <v>20170922</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1526,7 +1529,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>杜智恒</t>
+  </si>
+  <si>
+    <t>1.gateway项目版本回归keys的配置                                  2.版本回归测试文档</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
   </si>
   <si>
     <t>凌河源</t>
@@ -73,9 +79,6 @@
     <t>1.新碟、新歌重构
 2.增加搜索反馈接口
 3.歌单分类栏目的优化</t>
-  </si>
-  <si>
-    <t>代码，文档</t>
   </si>
   <si>
     <t>王琪</t>
@@ -123,8 +126,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -174,6 +177,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,95 +221,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,9 +249,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,9 +281,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,37 +334,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,78 +502,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -452,60 +509,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,30 +551,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -597,7 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,6 +592,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -648,10 +651,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,16 +663,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -678,76 +681,76 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,37 +759,37 @@
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
@@ -1195,7 +1198,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1255,7 +1258,7 @@
       <c r="G2" s="9"/>
       <c r="H2" s="10"/>
     </row>
-    <row r="3" ht="17.25" spans="1:8">
+    <row r="3" ht="34" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
@@ -1268,10 +1271,18 @@
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
+      <c r="E3" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
       <c r="A4" s="6" t="s">
@@ -1281,7 +1292,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1299,7 +1310,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1317,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1335,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1343,10 +1354,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1357,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1375,7 +1386,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1387,10 +1398,10 @@
         <v>20170922</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1401,7 +1412,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1419,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1437,7 +1448,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1455,7 +1466,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1473,7 +1484,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1491,22 +1502,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F15" s="15">
         <v>20170922</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1529,7 +1540,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34">
   <si>
     <t>项目名称</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>北京烽火</t>
+  </si>
+  <si>
+    <t>1.开机大图修改                                                         2.热词搜索重构                                                         3.搜索结果单曲重构</t>
+  </si>
+  <si>
+    <t>代码，文档，开机大图无srs</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -124,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -170,6 +176,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -178,36 +199,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -221,21 +213,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,17 +237,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,6 +266,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -305,6 +299,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -313,10 +314,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -334,13 +340,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,163 +508,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,23 +557,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,30 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -635,6 +602,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -645,16 +636,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -663,136 +669,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -916,7 +922,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1198,7 +1204,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1240,7 +1246,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="17.25" spans="1:8">
+    <row r="2" ht="51.75" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1255,8 +1261,12 @@
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="G2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="34" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1266,7 +1276,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
@@ -1278,10 +1288,10 @@
         <v>20170922</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:8">
@@ -1292,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
@@ -1310,7 +1320,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1328,7 +1338,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1346,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1354,10 +1364,10 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" ht="17.25" spans="1:8">
@@ -1368,7 +1378,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1386,7 +1396,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1398,10 +1408,10 @@
         <v>20170922</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="17.25" spans="1:8">
@@ -1412,7 +1422,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1430,7 +1440,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1448,7 +1458,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1466,7 +1476,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1484,7 +1494,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1502,22 +1512,22 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="15">
         <v>20170922</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1550,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13046\Desktop\GG\weekReport\20170922周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37">
   <si>
     <t>项目名称</t>
   </si>
@@ -79,6 +74,12 @@
   </si>
   <si>
     <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>1.删除歌单参数及返回码xml解析和封装。               2.歌单内容修改参数及返回码xml解析和封装</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>赵小平</t>
@@ -109,6 +110,12 @@
     <t>张文韬</t>
   </si>
   <si>
+    <t>1.演唱会直播Header接口的开发与调测
+2.趣玩乐下音乐视频模块的开发调测
+3.趣玩乐下视频专题二级页面的开发与调测
+4.音乐视频接口的开发与调测</t>
+  </si>
+  <si>
     <t>李春荣</t>
   </si>
   <si>
@@ -128,21 +135,19 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.删除歌单参数及返回码xml解析和封装。               2.歌单内容修改参数及返回码xml解析和封装</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,13 +158,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -170,12 +169,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -196,19 +189,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -217,12 +346,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -256,13 +571,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -274,58 +831,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -612,402 +1213,411 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="51.75" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="33.95" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>20170918</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>20170922</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="69" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
-        <v>20170918</v>
-      </c>
-      <c r="F9" s="5">
-        <v>20170922</v>
-      </c>
-      <c r="G9" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>31</v>
       </c>
       <c r="F15" s="15">
         <v>20170922</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\20170922周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -149,11 +144,22 @@
 </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>文档</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1趣玩乐接口分析—独家放送，srs
+2趣玩乐接口分析-独家放送子界面 ，srs
+3爱豆情报站-srs，分析
+4灰度系统-聚合分析</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -294,12 +300,6 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -340,6 +340,12 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -650,349 +656,353 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.88671875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="3" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
         <v>20170918</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>20170922</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+    <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>20170918</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>20170922</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
         <v>20170918</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>20170922</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+    <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
         <v>20170918</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>20170922</v>
       </c>
-      <c r="G12" s="17" t="s">
+      <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="15" t="s">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="13">
         <v>20170922</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1011,42 +1021,42 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170922周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>项目名称</t>
   </si>
@@ -135,31 +140,37 @@
   </si>
   <si>
     <t>李春荣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.修改完善28号版本SRS
 2.整理相关文档
 3.MV标签与列表接口开发
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>文档</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>1趣玩乐接口分析—独家放送，srs
 2趣玩乐接口分析-独家放送子界面 ，srs
 3爱豆情报站-srs，分析
 4灰度系统-聚合分析</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模版JSON生成
+2.模版解析类编写
+3.客户端JSON编写生成
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,6 +190,19 @@
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -220,24 +244,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -298,53 +309,56 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -409,7 +423,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,9 +456,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,6 +508,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,359 +703,367 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="3" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5">
         <v>20170918</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="5">
         <v>20170922</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="3" t="s">
+    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
+    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="5">
         <v>20170918</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="5">
         <v>20170922</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
+    <row r="10" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="3"/>
-    </row>
-    <row r="11" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="D10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="5">
+        <v>20170918</v>
+      </c>
+      <c r="F10" s="5">
+        <v>20170922</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="5">
         <v>20170918</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="5">
         <v>20170922</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
+    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3">
+      <c r="D12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="5">
         <v>20170918</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="5">
         <v>20170922</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
+      <c r="A14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
+      <c r="D14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
+      <c r="A15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="D15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F15" s="16">
         <v>20170922</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="9" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1021,48 +1077,48 @@
       <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\20170922周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
   <si>
     <t>项目名称</t>
   </si>
@@ -166,12 +161,17 @@
 3.客户端JSON编写生成
 </t>
   </si>
+  <si>
+    <t>1 定时任务数据同步用户铃音库 修改
+2批量开销户 上传用txt，以前form表单提交，现在修改成ajax提交，并且上传的TXT 每行一个号码无任何其他字符，默认如果大于5000行 不处理，新增配置项subscribe.basePath，以前是上传到本地服务项目里面，现在修改为配置项配置路径。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -246,6 +246,13 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
@@ -309,14 +316,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -360,6 +361,15 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -423,7 +433,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,26 +466,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,23 +501,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -703,362 +679,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="14.875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="A3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3">
         <v>20170918</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>20170922</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="7"/>
     </row>
     <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="7"/>
     </row>
     <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="7" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3">
         <v>20170918</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="3">
         <v>20170922</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="7" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="3">
         <v>20170918</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="3">
         <v>20170922</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="16" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="A11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="3">
         <v>20170918</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="3">
         <v>20170922</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="H11" s="7" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
         <v>20170918</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="3">
         <v>20170922</v>
       </c>
-      <c r="G12" s="15" t="s">
+      <c r="G12" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="5" t="s">
+    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="3">
+        <v>20170918</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20170922</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="A14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="A15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="16" t="s">
+      <c r="D15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>20170922</v>
       </c>
-      <c r="G15" s="17" t="s">
+      <c r="G15" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="9" t="s">
+      <c r="H15" s="7" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1080,39 +1062,39 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="17" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
+      <c r="A2" s="18"/>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
+      <c r="A3" s="18"/>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2"/>
+      <c r="A4" s="18"/>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="2"/>
+      <c r="A5" s="18"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2"/>
+      <c r="A6" s="18"/>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
+      <c r="A7" s="18"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2"/>
+      <c r="A8" s="18"/>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2"/>
+      <c r="A9" s="18"/>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="2"/>
+      <c r="A10" s="18"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="2"/>
+      <c r="A11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
+++ b/20170922周报/技术支撑服务人员周报日报-20170922.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43">
   <si>
     <t>项目名称</t>
   </si>
@@ -96,6 +96,15 @@
     <t>王琪</t>
   </si>
   <si>
+    <t>1趣玩乐接口分析—独家放送，srs
+2趣玩乐接口分析-独家放送子界面 ，srs
+3爱豆情报站-srs，分析
+4灰度系统-聚合分析</t>
+  </si>
+  <si>
+    <t>文档</t>
+  </si>
+  <si>
     <t>罗健</t>
   </si>
   <si>
@@ -105,6 +114,12 @@
   </si>
   <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.模版JSON生成
+2.模版解析类编写
+3.客户端JSON编写生成
+</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -116,62 +131,58 @@
 4.音乐视频接口的开发与调测</t>
   </si>
   <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>20170918</t>
-  </si>
-  <si>
-    <t>项目环境、结构的搭建与了解，架构组成的了解，跟踪代码封装过程以及演唱会下部分业务的流程。实现演唱会试看时长业务、整理演唱会相关接口资料到wiki中。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
     <t>李春荣</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">1.修改完善28号版本SRS
 2.整理相关文档
 3.MV标签与列表接口开发
 </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1趣玩乐接口分析—独家放送，srs
-2趣玩乐接口分析-独家放送子界面 ，srs
-3爱豆情报站-srs，分析
-4灰度系统-聚合分析</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.模版JSON生成
-2.模版解析类编写
-3.客户端JSON编写生成
-</t>
+  </si>
+  <si>
+    <t>曾昌林</t>
   </si>
   <si>
     <t>1 定时任务数据同步用户铃音库 修改
 2批量开销户 上传用txt，以前form表单提交，现在修改成ajax提交，并且上传的TXT 每行一个号码无任何其他字符，默认如果大于5000行 不处理，新增配置项subscribe.basePath，以前是上传到本地服务项目里面，现在修改为配置项配置路径。</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>何娟</t>
+  </si>
+  <si>
+    <t>三线客服系统（完善系统功能）：
+1、在运行环境测试代码，运行调试。对应接口所传参数进行比对。
+2、发现ModifyPersonalToneBoxResp接口中的返回数据存在问题，联系接口组的查看问题，并查出接口事件。
+3、对整个项目findbugs检错，并规范代码格式。
+4、添加功能点，对按号码查询的模块添加批量查询功能，导入txt文件。
+5、对所有传参请求的url进行ajax封装，保障数据安全。
+6、对所有功能中删除点添加字段，加说明。
+7、调整原有功能，并新添</t>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>20170918</t>
+  </si>
+  <si>
+    <t>项目环境、结构的搭建与了解，架构组成的了解，跟踪代码封装过程以及演唱会下部分业务的流程。实现演唱会试看时长业务、整理演唱会相关接口资料到wiki中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,27 +193,8 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -212,12 +204,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -237,28 +223,168 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,12 +393,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -306,85 +618,371 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,436 +1269,445 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="8" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="51.75" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+    <row r="3" ht="33.95" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>20170918</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="6">
         <v>20170922</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="34.5" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="6" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="51.75" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" ht="69" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" ht="51.75" spans="1:8">
+      <c r="A9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" ht="65.25" customHeight="1" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" ht="69" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" ht="103.5" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" ht="224.25" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20170918</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20170922</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" ht="69" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
-        <v>20170918</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="E15" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" s="18">
         <v>20170922</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3">
-        <v>20170918</v>
-      </c>
-      <c r="F10" s="3">
-        <v>20170922</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="3">
-        <v>20170918</v>
-      </c>
-      <c r="F11" s="3">
-        <v>20170922</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="3">
-        <v>20170918</v>
-      </c>
-      <c r="F12" s="3">
-        <v>20170922</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="3">
-        <v>20170918</v>
-      </c>
-      <c r="F13" s="3">
-        <v>20170922</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A15" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="14">
-        <v>20170922</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="18"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="18"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="18"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="18"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="18"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="18"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="18"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="18"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="18"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="18"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>